--- a/src/VAE/new_potential_services.xlsx
+++ b/src/VAE/new_potential_services.xlsx
@@ -602,2022 +602,2022 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04547463729977608</v>
+        <v>0.163167417049408</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1191519051790237</v>
+        <v>-0.05928422510623932</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1657178997993469</v>
+        <v>-0.1327559053897858</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07533406466245651</v>
+        <v>0.05356839299201965</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06914705038070679</v>
+        <v>0.1957382708787918</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00218590721487999</v>
+        <v>0.0204620361328125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04218179732561111</v>
+        <v>0.536321222782135</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3595319986343384</v>
+        <v>0.1078380048274994</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1455076187849045</v>
+        <v>0.1266049742698669</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1885601580142975</v>
+        <v>0.3326961696147919</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.20990851521492</v>
+        <v>0.217069685459137</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4429386854171753</v>
+        <v>0.5723075270652771</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3315121829509735</v>
+        <v>0.6187012791633606</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7180550098419189</v>
+        <v>-0.05645618960261345</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07477910071611404</v>
+        <v>0.2361520081758499</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.4149931967258453</v>
+        <v>-0.3723158538341522</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.794364869594574</v>
+        <v>-0.3143761157989502</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3781676590442657</v>
+        <v>0.0102507695555687</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2976371049880981</v>
+        <v>-0.09339138120412827</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2457019537687302</v>
+        <v>0.68742436170578</v>
       </c>
       <c r="U2" t="n">
-        <v>0.368299275636673</v>
+        <v>0.6597771048545837</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4065939784049988</v>
+        <v>-0.2219916880130768</v>
       </c>
       <c r="W2" t="n">
-        <v>0.146609827876091</v>
+        <v>0.1384288966655731</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1411259174346924</v>
+        <v>-0.2015411555767059</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2468893826007843</v>
+        <v>-0.1985004395246506</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.1263587176799774</v>
+        <v>-0.1200010403990746</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.1709344685077667</v>
+        <v>0.03737826645374298</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.4851139187812805</v>
+        <v>0.113879457116127</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.02570481970906258</v>
+        <v>0.3033403754234314</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.1461222171783447</v>
+        <v>0.07332246005535126</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.09143252670764923</v>
+        <v>0.52265864610672</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4889689981937408</v>
+        <v>0.3628408908843994</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0566391795873642</v>
+        <v>0.3636374771595001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.21621173620224</v>
+        <v>0.7141105532646179</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2636358141899109</v>
+        <v>0.7035344839096069</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01911173388361931</v>
+        <v>0.5505755543708801</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1008688732981682</v>
+        <v>0.8737249374389648</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1919899582862854</v>
+        <v>0.6461911797523499</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02368184179067612</v>
+        <v>0.890556812286377</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09196296334266663</v>
+        <v>-1.093316435813904</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.3113361597061157</v>
+        <v>0.8926975727081299</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02672235667705536</v>
+        <v>0.750760018825531</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2738350629806519</v>
+        <v>0.4203397333621979</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.2162624895572662</v>
+        <v>1.022019147872925</v>
       </c>
       <c r="L3" t="n">
-        <v>1.071930527687073</v>
+        <v>-0.8010647892951965</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5646961331367493</v>
+        <v>-0.7791095376014709</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5181761384010315</v>
+        <v>-0.7966345548629761</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007117149420082569</v>
+        <v>-0.9049816727638245</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.5039311647415161</v>
+        <v>-0.5387430191040039</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.4607567191123962</v>
+        <v>0.7964571118354797</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.4217168986797333</v>
+        <v>-0.6293672919273376</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.03113881126046181</v>
+        <v>0.03051197156310081</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.279679924249649</v>
+        <v>-0.2483890205621719</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.2736040353775024</v>
+        <v>-0.3831422328948975</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3674925565719604</v>
+        <v>0.335029810667038</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1275583058595657</v>
+        <v>-0.02800720930099487</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.06996489316225052</v>
+        <v>-0.004450947046279907</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.05908504128456116</v>
+        <v>-0.325789213180542</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.06629316508769989</v>
+        <v>-0.09630396217107773</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.06415337324142456</v>
+        <v>0.008851654827594757</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1822916269302368</v>
+        <v>-0.187391921877861</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.3862680494785309</v>
+        <v>0.9321785569190979</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.1777221262454987</v>
+        <v>0.1742908805608749</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1969079673290253</v>
+        <v>-0.6824877858161926</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.07527351379394531</v>
+        <v>0.8167725205421448</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1311831772327423</v>
+        <v>-0.6750022768974304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3971825838088989</v>
+        <v>0.08945530652999878</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4837445318698883</v>
+        <v>-0.1589735597372055</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4546666145324707</v>
+        <v>0.2008313536643982</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.009849108755588531</v>
+        <v>0.1533412933349609</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4430551826953888</v>
+        <v>0.4609737396240234</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2337334454059601</v>
+        <v>0.3184835612773895</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4605164527893066</v>
+        <v>-0.4128837585449219</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1399948596954346</v>
+        <v>0.1496800184249878</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1658850461244583</v>
+        <v>0.1694017499685287</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6955284476280212</v>
+        <v>0.4149932563304901</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.005971580743789673</v>
+        <v>0.1214223578572273</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.3417961597442627</v>
+        <v>-0.008220843970775604</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.6382688283920288</v>
+        <v>0.2141480445861816</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4132171273231506</v>
+        <v>-0.1492353230714798</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.01893773302435875</v>
+        <v>-0.2501430213451385</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.447009950876236</v>
+        <v>-0.03394615650177002</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.0790766179561615</v>
+        <v>0.4313676655292511</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1191888079047203</v>
+        <v>-0.7732539176940918</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.1999562233686447</v>
+        <v>0.3125592172145844</v>
       </c>
       <c r="T4" t="n">
-        <v>1.048740983009338</v>
+        <v>-0.2458852976560593</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9895555377006531</v>
+        <v>-0.1278039216995239</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6052472591400146</v>
+        <v>-0.1607513725757599</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01214228570461273</v>
+        <v>0.1909045875072479</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1269049644470215</v>
+        <v>-0.08124161511659622</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.2110574245452881</v>
+        <v>-0.1866549700498581</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01675723493099213</v>
+        <v>-0.3614907264709473</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.08474883437156677</v>
+        <v>0.09130746126174927</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.4008721709251404</v>
+        <v>0.6015465259552002</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3086453378200531</v>
+        <v>-0.447586715221405</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.03380033373832703</v>
+        <v>0.1563376635313034</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.6931427121162415</v>
+        <v>-0.1671204715967178</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.3582222759723663</v>
+        <v>0.3812203109264374</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.8455206155776978</v>
+        <v>0.3101403713226318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.03605693578720093</v>
+        <v>-0.05828394368290901</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1381601393222809</v>
+        <v>-0.3285639882087708</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.09897784888744354</v>
+        <v>-0.5687963962554932</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002434208989143372</v>
+        <v>-0.3495332896709442</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2488234043121338</v>
+        <v>-0.3115314841270447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2431681752204895</v>
+        <v>0.04837483167648315</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5707355737686157</v>
+        <v>-0.3978267908096313</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05399627983570099</v>
+        <v>-0.1830951273441315</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2290784567594528</v>
+        <v>-0.3182187676429749</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.07951036095619202</v>
+        <v>0.2544565498828888</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01554830372333527</v>
+        <v>-0.1980449706315994</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.2641717195510864</v>
+        <v>-0.2036835253238678</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1621853113174438</v>
+        <v>-0.008553527295589447</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2775068581104279</v>
+        <v>-0.3006584048271179</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06507229804992676</v>
+        <v>0.1230170577764511</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.4097411334514618</v>
+        <v>-0.5987371802330017</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1338792145252228</v>
+        <v>-0.2929872870445251</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.2374905347824097</v>
+        <v>-0.3387553095817566</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08874809741973877</v>
+        <v>0.3828050792217255</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.3510863780975342</v>
+        <v>0.3677282333374023</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.4658700227737427</v>
+        <v>0.2195396721363068</v>
       </c>
       <c r="V5" t="n">
-        <v>0.547713577747345</v>
+        <v>0.4001137912273407</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08005528151988983</v>
+        <v>0.07839164137840271</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0283304750919342</v>
+        <v>-0.01212306320667267</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.08673012256622314</v>
+        <v>-0.2850408554077148</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.09844821691513062</v>
+        <v>-0.2549456357955933</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.1566116809844971</v>
+        <v>0.04237876832485199</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.4382118582725525</v>
+        <v>-0.05531035363674164</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.5236537456512451</v>
+        <v>-0.3316428661346436</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.1215456277132034</v>
+        <v>0.06627671420574188</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.5508807897567749</v>
+        <v>-0.2122967839241028</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.05908391624689102</v>
+        <v>-0.03921223804354668</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.414160817861557</v>
+        <v>0.1495746374130249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.06243570894002914</v>
+        <v>-0.3358010351657867</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.25272536277771</v>
+        <v>-0.2246669083833694</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.08727952837944031</v>
+        <v>-0.1746399104595184</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1056602224707603</v>
+        <v>-0.1467474699020386</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003430057317018509</v>
+        <v>0.2114457935094833</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1180389449000359</v>
+        <v>-0.1778973340988159</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8479520082473755</v>
+        <v>0.1301551014184952</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5145074129104614</v>
+        <v>-0.3298837244510651</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1379100829362869</v>
+        <v>-0.01788850128650665</v>
       </c>
       <c r="J6" t="n">
-        <v>0.235014021396637</v>
+        <v>0.1575099378824234</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3647421002388</v>
+        <v>-0.3096636831760406</v>
       </c>
       <c r="L6" t="n">
-        <v>1.268580794334412</v>
+        <v>-0.07996972650289536</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5761039853096008</v>
+        <v>0.4845654368400574</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5664334893226624</v>
+        <v>-0.04237601161003113</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.5279775857925415</v>
+        <v>0.1975433826446533</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1688423603773117</v>
+        <v>0.2945161163806915</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.4826317429542542</v>
+        <v>-0.2559786736965179</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7279267311096191</v>
+        <v>-0.684309720993042</v>
       </c>
       <c r="S6" t="n">
-        <v>0.009468547999858856</v>
+        <v>0.4083969295024872</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1305232346057892</v>
+        <v>0.2169197797775269</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.02105967700481415</v>
+        <v>-0.139332503080368</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3214448690414429</v>
+        <v>-0.2641437649726868</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.04007090628147125</v>
+        <v>-0.02956153452396393</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06083055213093758</v>
+        <v>-0.09227718412876129</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0335468053817749</v>
+        <v>0.8646560311317444</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.1903554797172546</v>
+        <v>-0.004595452919602394</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.04769447445869446</v>
+        <v>-0.1243458092212677</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3226360678672791</v>
+        <v>0.2242568880319595</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.4602484405040741</v>
+        <v>-0.9218690395355225</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02244989573955536</v>
+        <v>0.1300482600927353</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.038216471672058</v>
+        <v>0.07322172820568085</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.3556919395923615</v>
+        <v>0.09660305082798004</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6532678604125977</v>
+        <v>0.4494927227497101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2994199395179749</v>
+        <v>0.3650273382663727</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4908241033554077</v>
+        <v>0.12286526709795</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5818166136741638</v>
+        <v>0.04201173782348633</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5391294360160828</v>
+        <v>0.4401881992816925</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8595348596572876</v>
+        <v>0.4136136770248413</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7040908336639404</v>
+        <v>0.9473546743392944</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3938538134098053</v>
+        <v>-0.486987292766571</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7022531628608704</v>
+        <v>0.5470004081726074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7103025317192078</v>
+        <v>0.5396862626075745</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3389001488685608</v>
+        <v>0.8175366520881653</v>
       </c>
       <c r="K7" t="n">
-        <v>0.674856424331665</v>
+        <v>0.6741015315055847</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0174795538187027</v>
+        <v>0.2681677341461182</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.7614221572875977</v>
+        <v>-0.08554685115814209</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.03020098805427551</v>
+        <v>-0.7440471649169922</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.9075427651405334</v>
+        <v>-0.3962978720664978</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2205733805894852</v>
+        <v>-1.029714584350586</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7730080485343933</v>
+        <v>-0.06814655661582947</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.2903043031692505</v>
+        <v>-0.08331751823425293</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.2800188660621643</v>
+        <v>-0.04355450719594955</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.3765497803688049</v>
+        <v>0.4950892925262451</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1879057437181473</v>
+        <v>0.2180066108703613</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2436446845531464</v>
+        <v>0.5226442813873291</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05185661464929581</v>
+        <v>-0.01556810736656189</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.06549315899610519</v>
+        <v>-0.00728309154510498</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.05194583535194397</v>
+        <v>-0.2189671844244003</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02184109389781952</v>
+        <v>-0.1219331845641136</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.2345151007175446</v>
+        <v>0.02846786379814148</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.1233210563659668</v>
+        <v>-0.05091296136379242</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.229800343513489</v>
+        <v>0.1206192299723625</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.2756912112236023</v>
+        <v>-0.02749915421009064</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.1313080191612244</v>
+        <v>0.232825443148613</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.5239506959915161</v>
+        <v>0.5215169787406921</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.25449538230896</v>
+        <v>0.4791873693466187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.478616327047348</v>
+        <v>-0.2140735685825348</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.321680873632431</v>
+        <v>0.01866868138313293</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4120457768440247</v>
+        <v>-0.2493175268173218</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2077716588973999</v>
+        <v>-0.07517615705728531</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4943969249725342</v>
+        <v>0.2311418652534485</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.295882374048233</v>
+        <v>0.004296332597732544</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2070949524641037</v>
+        <v>-0.08301742374897003</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.24139304459095</v>
+        <v>0.09140777587890625</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2780209183692932</v>
+        <v>0.05736741423606873</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.6306841373443604</v>
+        <v>0.1568568050861359</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.2473741173744202</v>
+        <v>0.3784470856189728</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.144318476319313</v>
+        <v>-0.2707957029342651</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.4296185374259949</v>
+        <v>-0.08265425264835358</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5601398348808289</v>
+        <v>0.08657582104206085</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1687516570091248</v>
+        <v>0.166053518652916</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.3651967346668243</v>
+        <v>-0.6007645130157471</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.09697715193033218</v>
+        <v>0.1953586339950562</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1739578545093536</v>
+        <v>0.1909907758235931</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.2030619084835052</v>
+        <v>-0.2402086853981018</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3602219820022583</v>
+        <v>0.4533005952835083</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7231812477111816</v>
+        <v>0.6574119925498962</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2207361161708832</v>
+        <v>-0.08017806708812714</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06300428509712219</v>
+        <v>0.007018595933914185</v>
       </c>
       <c r="X8" t="n">
-        <v>0.05233991146087646</v>
+        <v>-0.04814207553863525</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.2417953014373779</v>
+        <v>-0.2656132280826569</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1013008877635002</v>
+        <v>0.04078292101621628</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.05255857110023499</v>
+        <v>0.01095031201839447</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.403515100479126</v>
+        <v>-0.08529683947563171</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2763963639736176</v>
+        <v>0.5098963975906372</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.1331427842378616</v>
+        <v>0.2049753218889236</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.615054190158844</v>
+        <v>-0.3577960133552551</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.3277900815010071</v>
+        <v>0.2107630521059036</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.625157356262207</v>
+        <v>-0.2549843788146973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2759150266647339</v>
+        <v>-0.5893407464027405</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.08219336718320847</v>
+        <v>-0.6799208521842957</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.200796976685524</v>
+        <v>-0.6412118673324585</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1884377002716064</v>
+        <v>-0.637399435043335</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08671736717224121</v>
+        <v>-0.2368161380290985</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01347728446125984</v>
+        <v>-0.464844673871994</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1921706944704056</v>
+        <v>0.3603659272193909</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.09312568604946136</v>
+        <v>-0.7184878587722778</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1574847400188446</v>
+        <v>-0.6146097779273987</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.2353568971157074</v>
+        <v>-0.4437770843505859</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.1254117637872696</v>
+        <v>-0.7193902730941772</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.2041531950235367</v>
+        <v>-0.008577264845371246</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1532154083251953</v>
+        <v>0.4803566336631775</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3990896940231323</v>
+        <v>0.5849135518074036</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2479154318571091</v>
+        <v>0.5678848028182983</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.02149061299860477</v>
+        <v>0.2514412105083466</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1027360409498215</v>
+        <v>-0.2632212042808533</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.3000428080558777</v>
+        <v>0.01537258177995682</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03063925728201866</v>
+        <v>0.04848281666636467</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.4800502061843872</v>
+        <v>-0.08099153637886047</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1788372546434402</v>
+        <v>0.5520658493041992</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3173405528068542</v>
+        <v>-0.3577293753623962</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02395749092102051</v>
+        <v>0.03967642784118652</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.06881096214056015</v>
+        <v>-0.0905972421169281</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.1192647218704224</v>
+        <v>-0.7336184978485107</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.005956694483757019</v>
+        <v>-0.08804085105657578</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.1351769268512726</v>
+        <v>0.03863361477851868</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1946939527988434</v>
+        <v>-0.2187254279851913</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.2979754209518433</v>
+        <v>0.04952282458543777</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.2381288856267929</v>
+        <v>0.2801116108894348</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.5483574867248535</v>
+        <v>-0.3022311925888062</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.0006840676069259644</v>
+        <v>-0.2203975468873978</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.2258964478969574</v>
+        <v>0.1465387791395187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.08084709942340851</v>
+        <v>0.1374329924583435</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08235705643892288</v>
+        <v>0.2609880268573761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04470200836658478</v>
+        <v>0.4439563453197479</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1802652478218079</v>
+        <v>0.3591313362121582</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1604220867156982</v>
+        <v>0.502062976360321</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3457054495811462</v>
+        <v>0.7322027087211609</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5579922199249268</v>
+        <v>-0.3394464254379272</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1032368838787079</v>
+        <v>0.5503451824188232</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3836098313331604</v>
+        <v>0.366343230009079</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5165498852729797</v>
+        <v>0.5728044509887695</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2620158791542053</v>
+        <v>0.403691828250885</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7905070781707764</v>
+        <v>-0.4575397372245789</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7122793197631836</v>
+        <v>-0.2060207277536392</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06516534090042114</v>
+        <v>-0.02612553909420967</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2091564983129501</v>
+        <v>-0.3916764855384827</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.09831232577562332</v>
+        <v>0.1148441284894943</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.268796980381012</v>
+        <v>1.030768275260925</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1069434881210327</v>
+        <v>-0.4053341746330261</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1953595131635666</v>
+        <v>0.0214812196791172</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.1656098961830139</v>
+        <v>-0.4896309673786163</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2912532687187195</v>
+        <v>-0.3798127174377441</v>
       </c>
       <c r="V10" t="n">
-        <v>0.005176320672035217</v>
+        <v>-0.4951881170272827</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1223112195730209</v>
+        <v>-0.02579960227012634</v>
       </c>
       <c r="X10" t="n">
-        <v>0.005328316241502762</v>
+        <v>-0.07790250331163406</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.3260250091552734</v>
+        <v>-0.6575220227241516</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.1543518304824829</v>
+        <v>-0.3125346601009369</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.2636316120624542</v>
+        <v>0.1334993988275528</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.250031590461731</v>
+        <v>0.7024820446968079</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.2323766946792603</v>
+        <v>-0.2106286287307739</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.2321476489305496</v>
+        <v>0.1936138123273849</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.1159196868538857</v>
+        <v>-0.2941435575485229</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.247929722070694</v>
+        <v>0.6729245781898499</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.3453843295574188</v>
+        <v>-0.03030111826956272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5450846552848816</v>
+        <v>-0.6780067086219788</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4917531907558441</v>
+        <v>-0.5702823996543884</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4149480760097504</v>
+        <v>-0.3663994371891022</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3412400484085083</v>
+        <v>-0.5715802907943726</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6752618551254272</v>
+        <v>0.06846460700035095</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1789413094520569</v>
+        <v>-0.4735593199729919</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.5085859298706055</v>
+        <v>0.3643413186073303</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2328843027353287</v>
+        <v>-0.4658670425415039</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1175117343664169</v>
+        <v>-0.4031595587730408</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.6084396243095398</v>
+        <v>-0.5106385946273804</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1297241896390915</v>
+        <v>-0.7578163146972656</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.286591112613678</v>
+        <v>-0.1572171300649643</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.6830921769142151</v>
+        <v>0.06658637523651123</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3729376792907715</v>
+        <v>0.4747752249240875</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.1220319047570229</v>
+        <v>0.2651897370815277</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.3082658350467682</v>
+        <v>0.6322911381721497</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1506055742502213</v>
+        <v>0.07560819387435913</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01460056006908417</v>
+        <v>-0.08056057244539261</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.1626477986574173</v>
+        <v>0.3414073288440704</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3144609928131104</v>
+        <v>-0.06339374929666519</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6439423561096191</v>
+        <v>0.2810064256191254</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5823769569396973</v>
+        <v>-0.499428927898407</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08598021417856216</v>
+        <v>0.05763417482376099</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1115670502185822</v>
+        <v>-0.07732013612985611</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.3271668553352356</v>
+        <v>-0.1949061751365662</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.02169167995452881</v>
+        <v>-0.1482344716787338</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.2099905759096146</v>
+        <v>0.114194318652153</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.4591131210327148</v>
+        <v>-0.02897077053785324</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.3184141218662262</v>
+        <v>-0.6109076738357544</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.1364602446556091</v>
+        <v>0.1143299490213394</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.9319223761558533</v>
+        <v>-0.1610884070396423</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.4425552189350128</v>
+        <v>-0.3171793818473816</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.920458197593689</v>
+        <v>0.1599071472883224</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1011457741260529</v>
+        <v>0.5659603476524353</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2046932876110077</v>
+        <v>0.2388217598199844</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0659082755446434</v>
+        <v>0.2042167037725449</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08497865498065948</v>
+        <v>0.378327876329422</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8256009817123413</v>
+        <v>0.3020429015159607</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2407755851745605</v>
+        <v>0.6984255313873291</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.36821436882019</v>
+        <v>-0.7688325643539429</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3996236324310303</v>
+        <v>0.3499710857868195</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06616610288619995</v>
+        <v>0.2945761978626251</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.4954863488674164</v>
+        <v>0.8217086791992188</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2348530292510986</v>
+        <v>0.3839846253395081</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.6669664978981018</v>
+        <v>-0.2351023554801941</v>
       </c>
       <c r="M12" t="n">
-        <v>-1.538909912109375</v>
+        <v>0.163092166185379</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.02124911546707153</v>
+        <v>-0.7593535184860229</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.9838002324104309</v>
+        <v>-0.04319803044199944</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.4808927178382874</v>
+        <v>-0.5116634368896484</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.165186405181885</v>
+        <v>-0.06141403317451477</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.3978830575942993</v>
+        <v>-0.5937524437904358</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.1773199290037155</v>
+        <v>0.9413149952888489</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.4770807027816772</v>
+        <v>-0.1181329265236855</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.5644298791885376</v>
+        <v>-0.1780016720294952</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6085477471351624</v>
+        <v>0.2590320408344269</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1394566148519516</v>
+        <v>-0.009888723492622375</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2658999264240265</v>
+        <v>-0.0326186865568161</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.1764142215251923</v>
+        <v>-0.07562652975320816</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.09546931087970734</v>
+        <v>-0.1650380790233612</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.1535511910915375</v>
+        <v>0.07336653769016266</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.04205100238323212</v>
+        <v>0.191290020942688</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.6612517833709717</v>
+        <v>-0.522399365901947</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.3680972754955292</v>
+        <v>0.0898212194442749</v>
       </c>
       <c r="AE12" t="n">
-        <v>-1.274757504463196</v>
+        <v>0.04904335737228394</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.0004791021347045898</v>
+        <v>0.4212672412395477</v>
       </c>
       <c r="AG12" t="n">
-        <v>-1.262539982795715</v>
+        <v>0.6066967844963074</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7286202311515808</v>
+        <v>-0.6305922865867615</v>
       </c>
       <c r="B13" t="n">
-        <v>0.450253963470459</v>
+        <v>-0.1735860854387283</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3973955512046814</v>
+        <v>-0.7980731725692749</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3045594096183777</v>
+        <v>-0.7312870025634766</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4718190133571625</v>
+        <v>-0.4932299256324768</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7526991963386536</v>
+        <v>-0.939259946346283</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4086718857288361</v>
+        <v>0.4370315670967102</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7247549891471863</v>
+        <v>-0.590084433555603</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6321578621864319</v>
+        <v>-0.6305995583534241</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3700768947601318</v>
+        <v>-0.6160644888877869</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8702061176300049</v>
+        <v>-0.4195420145988464</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.8667641282081604</v>
+        <v>-0.07015233486890793</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.4140161275863647</v>
+        <v>0.1558168828487396</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.4912989735603333</v>
+        <v>0.2279791533946991</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.2271746248006821</v>
+        <v>0.7518945336341858</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04770701006054878</v>
+        <v>-0.7354394793510437</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4147122502326965</v>
+        <v>-0.4608631134033203</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.07659195363521576</v>
+        <v>0.7765357494354248</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3727523386478424</v>
+        <v>-0.3966161012649536</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.003553152084350586</v>
+        <v>0.6129478216171265</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1537767648696899</v>
+        <v>1.119418382644653</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1987183094024658</v>
+        <v>-0.0659516304731369</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1053814515471458</v>
+        <v>0.0629805326461792</v>
       </c>
       <c r="X13" t="n">
-        <v>0.166355699300766</v>
+        <v>-0.006374761462211609</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2102203071117401</v>
+        <v>-0.1175490617752075</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.3513681888580322</v>
+        <v>0.1476757973432541</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.2441557645797729</v>
+        <v>-0.03790631145238876</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.6425878405570984</v>
+        <v>-0.9469168186187744</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.09909455478191376</v>
+        <v>0.6854747533798218</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.08749926090240479</v>
+        <v>-0.1952035129070282</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.9072679281234741</v>
+        <v>-0.4005106091499329</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.4358300268650055</v>
+        <v>-0.3588025569915771</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.09811502695083618</v>
+        <v>-0.5350408554077148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.05900286510586739</v>
+        <v>0.4663001894950867</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.09948775172233582</v>
+        <v>0.3223781585693359</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2237962782382965</v>
+        <v>0.07568106055259705</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06507465243339539</v>
+        <v>0.5904272794723511</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2237178236246109</v>
+        <v>0.6211045980453491</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.00332498736679554</v>
+        <v>0.6172264814376831</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3279141187667847</v>
+        <v>0.003842532634735107</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.208276703953743</v>
+        <v>0.8796734809875488</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1748333722352982</v>
+        <v>0.6476011276245117</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1377467215061188</v>
+        <v>0.7803291082382202</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.03761578351259232</v>
+        <v>0.9426816701889038</v>
       </c>
       <c r="L14" t="n">
-        <v>0.652222752571106</v>
+        <v>0.5794341564178467</v>
       </c>
       <c r="M14" t="n">
-        <v>0.251494973897934</v>
+        <v>0.06364908814430237</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1273773163557053</v>
+        <v>-0.7189690470695496</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1320843547582626</v>
+        <v>-0.2005601525306702</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.02366320230066776</v>
+        <v>-1.31517493724823</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.5054479241371155</v>
+        <v>0.3659909069538116</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5337689518928528</v>
+        <v>-0.3256758749485016</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.1924099177122116</v>
+        <v>-0.5075485110282898</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4795980751514435</v>
+        <v>0.7729865908622742</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1873425394296646</v>
+        <v>0.5394116640090942</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3972224593162537</v>
+        <v>0.1349830329418182</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.07420408725738525</v>
+        <v>0.1730190217494965</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.05924157798290253</v>
+        <v>-0.1580729782581329</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.186302661895752</v>
+        <v>0.1281406134366989</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.3121306300163269</v>
+        <v>-0.1803713738918304</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.05641531199216843</v>
+        <v>0.1818379461765289</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.1948099285364151</v>
+        <v>-0.07992248237133026</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.08309939503669739</v>
+        <v>0.8973573446273804</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.02222667634487152</v>
+        <v>-0.1787538081407547</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.4733832478523254</v>
+        <v>0.7255923748016357</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.2851347625255585</v>
+        <v>0.6631689667701721</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.1223638951778412</v>
+        <v>0.09732700139284134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1976539641618729</v>
+        <v>-0.09297095239162445</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1000892445445061</v>
+        <v>0.03000371158123016</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06587445735931396</v>
+        <v>0.2466341257095337</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.005359113216400146</v>
+        <v>0.3166171610355377</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08162112534046173</v>
+        <v>0.3622218370437622</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4079274237155914</v>
+        <v>0.2073623538017273</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7235892415046692</v>
+        <v>-0.8603067398071289</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3465030193328857</v>
+        <v>-0.09581878781318665</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3410483002662659</v>
+        <v>0.1484271287918091</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.03739689290523529</v>
+        <v>0.1111995503306389</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2685567438602448</v>
+        <v>0.2813742756843567</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.9501882195472717</v>
+        <v>-0.6903780102729797</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.7514110207557678</v>
+        <v>-0.3995060920715332</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.2501375675201416</v>
+        <v>-0.3641411662101746</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.4953996539115906</v>
+        <v>-0.8834809064865112</v>
       </c>
       <c r="P15" t="n">
-        <v>0.08840751647949219</v>
+        <v>-0.1236262023448944</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3830491304397583</v>
+        <v>0.8254218101501465</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.02931410074234009</v>
+        <v>-0.7598207592964172</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1542325615882874</v>
+        <v>0.2961292266845703</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.5011659264564514</v>
+        <v>-0.8294193148612976</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.05080254375934601</v>
+        <v>-0.2162410020828247</v>
       </c>
       <c r="V15" t="n">
-        <v>0.884021520614624</v>
+        <v>0.2207755148410797</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.1200235486030579</v>
+        <v>0.2678348422050476</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1218028590083122</v>
+        <v>-0.2574467062950134</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.05340760946273804</v>
+        <v>-0.1569016426801682</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.2086299955844879</v>
+        <v>-0.2580894827842712</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.1894933581352234</v>
+        <v>0.06880488991737366</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.1104498654603958</v>
+        <v>0.2055938392877579</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.2332887649536133</v>
+        <v>0.3790190517902374</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.2242529988288879</v>
+        <v>0.08715145289897919</v>
       </c>
       <c r="AE15" t="n">
-        <v>-1.033926010131836</v>
+        <v>-0.6247721910476685</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.063747338950634</v>
+        <v>0.05520014837384224</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.5981776714324951</v>
+        <v>-0.5113072991371155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.540251612663269</v>
+        <v>-0.1510231345891953</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5273845791816711</v>
+        <v>-0.1429060250520706</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5529561042785645</v>
+        <v>-0.203656941652298</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3550731837749481</v>
+        <v>-0.08326706290245056</v>
       </c>
       <c r="E16" t="n">
-        <v>0.639039933681488</v>
+        <v>0.2023194134235382</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3201662302017212</v>
+        <v>-0.05935788154602051</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7939266562461853</v>
+        <v>0.001827061176300049</v>
       </c>
       <c r="H16" t="n">
-        <v>0.212499275803566</v>
+        <v>-0.3164915144443512</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5395593047142029</v>
+        <v>-0.04141415655612946</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4637493789196014</v>
+        <v>0.2739221453666687</v>
       </c>
       <c r="K16" t="n">
-        <v>0.479388564825058</v>
+        <v>-0.1984009146690369</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03483323752880096</v>
+        <v>0.02303071320056915</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04256086796522141</v>
+        <v>0.7658519744873047</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1399938613176346</v>
+        <v>-0.2553577423095703</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3409483730792999</v>
+        <v>0.3368570804595947</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6981005072593689</v>
+        <v>-0.0006954427808523178</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.03388741612434387</v>
+        <v>-0.03221577405929565</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.2533306777477264</v>
+        <v>-0.962209939956665</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.1125809699296951</v>
+        <v>0.3769626915454865</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2367147952318192</v>
+        <v>0.08473250269889832</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3872739374637604</v>
+        <v>-0.5492293834686279</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.4304811060428619</v>
+        <v>-0.3986889123916626</v>
       </c>
       <c r="W16" t="n">
-        <v>0.004601821303367615</v>
+        <v>0.1873688101768494</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1075504571199417</v>
+        <v>0.0005610138177871704</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4292934536933899</v>
+        <v>0.879669725894928</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.1489265561103821</v>
+        <v>-0.09400772303342819</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.08426827937364578</v>
+        <v>0.02138170599937439</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.5928660035133362</v>
+        <v>0.5190808773040771</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.5332610011100769</v>
+        <v>-1.01324450969696</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.1176100075244904</v>
+        <v>0.00172249972820282</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.6874182820320129</v>
+        <v>0.02396471798419952</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.3771403431892395</v>
+        <v>0.2688969969749451</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.1830855756998062</v>
+        <v>0.4333968162536621</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1273355782032013</v>
+        <v>0.04743242636322975</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1123838052153587</v>
+        <v>0.0891256257891655</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09424262493848801</v>
+        <v>-0.02252531051635742</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.07362609356641769</v>
+        <v>0.3678601682186127</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06600210070610046</v>
+        <v>0.1053948402404785</v>
       </c>
       <c r="F17" t="n">
-        <v>0.265985369682312</v>
+        <v>0.3903327584266663</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2614468038082123</v>
+        <v>-0.6167172789573669</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1576978713274002</v>
+        <v>0.3382577896118164</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3630579710006714</v>
+        <v>0.1372012048959732</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005312271416187286</v>
+        <v>0.4197994768619537</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3293444514274597</v>
+        <v>0.5184191465377808</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.4776729345321655</v>
+        <v>-0.256601095199585</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.2748103737831116</v>
+        <v>-0.1151078045368195</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0829937756061554</v>
+        <v>-0.5190886855125427</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0599609911441803</v>
+        <v>-0.2212338447570801</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0630171075463295</v>
+        <v>-0.9828530550003052</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09013967216014862</v>
+        <v>0.3802017271518707</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.1072877496480942</v>
+        <v>-0.08652577549219131</v>
       </c>
       <c r="S17" t="n">
-        <v>0.05817911401391029</v>
+        <v>0.2155631184577942</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.3305479288101196</v>
+        <v>0.1237459182739258</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02095292508602142</v>
+        <v>0.03109344840049744</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3208043873310089</v>
+        <v>0.08121216297149658</v>
       </c>
       <c r="W17" t="n">
-        <v>0.07467970997095108</v>
+        <v>0.06335839629173279</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01669348031282425</v>
+        <v>-0.02497631311416626</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.09333926439285278</v>
+        <v>-0.1918397694826126</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.1020154058933258</v>
+        <v>-0.1969527900218964</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.2024378180503845</v>
+        <v>-0.009222127497196198</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.3716066479682922</v>
+        <v>-0.07368724048137665</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.05624972656369209</v>
+        <v>0.3259385824203491</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.1811553835868835</v>
+        <v>0.1438981145620346</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.8747818470001221</v>
+        <v>-0.1591939032077789</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.02362625300884247</v>
+        <v>0.4299149811267853</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.2077285349369049</v>
+        <v>-0.003161503002047539</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1313451677560806</v>
+        <v>-0.2753353416919708</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2703330814838409</v>
+        <v>-0.3698152899742126</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.08734507858753204</v>
+        <v>-0.4411890208721161</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.09789355844259262</v>
+        <v>-0.4833469688892365</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1119125038385391</v>
+        <v>-0.2884384989738464</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05945529043674469</v>
+        <v>-0.1680693626403809</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3178538978099823</v>
+        <v>-0.03808535635471344</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3059139251708984</v>
+        <v>-0.5657398700714111</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.09637238085269928</v>
+        <v>-0.4606835246086121</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3310140669345856</v>
+        <v>0.01599752902984619</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1018107533454895</v>
+        <v>-0.4681863784790039</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3261877298355103</v>
+        <v>0.006705000996589661</v>
       </c>
       <c r="M18" t="n">
-        <v>1.183763861656189</v>
+        <v>0.5826832056045532</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1475805640220642</v>
+        <v>-0.2077103108167648</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4385771751403809</v>
+        <v>0.4875427782535553</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.21326644718647</v>
+        <v>-0.1871349811553955</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.3557715117931366</v>
+        <v>-0.4324440956115723</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.6943846344947815</v>
+        <v>-0.3277579545974731</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4634769558906555</v>
+        <v>0.3048957288265228</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.2934362292289734</v>
+        <v>-0.191069483757019</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.4775370955467224</v>
+        <v>0.1617597341537476</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.3221477866172791</v>
+        <v>0.128614604473114</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1032463610172272</v>
+        <v>-0.01381213963031769</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.05996257811784744</v>
+        <v>-0.06192120164632797</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1818690598011017</v>
+        <v>-0.3764989972114563</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02177972346544266</v>
+        <v>-0.05515273660421371</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.08934750407934189</v>
+        <v>-0.05873338878154755</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.7655640840530396</v>
+        <v>-0.03177092969417572</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.7982859015464783</v>
+        <v>-0.3395999073982239</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.1179591715335846</v>
+        <v>0.1253853887319565</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.2020728588104248</v>
+        <v>-0.3147361874580383</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.1929973661899567</v>
+        <v>-0.184183806180954</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.4143816828727722</v>
+        <v>0.3138028979301453</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1622419059276581</v>
+        <v>0.435867577791214</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1347599923610687</v>
+        <v>0.4937470555305481</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1283326148986816</v>
+        <v>0.2008989155292511</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.238728255033493</v>
+        <v>0.4766704738140106</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1510716527700424</v>
+        <v>0.5087267160415649</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1395359039306641</v>
+        <v>0.6400382518768311</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.305808037519455</v>
+        <v>-0.5751577019691467</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1533953547477722</v>
+        <v>0.2463923692703247</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.00301593542098999</v>
+        <v>0.4480310678482056</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.2143937647342682</v>
+        <v>0.5739495158195496</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.1040066033601761</v>
+        <v>0.7852931022644043</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.1480892151594162</v>
+        <v>-0.6317864656448364</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.4758250713348389</v>
+        <v>-0.2150226980447769</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4474422931671143</v>
+        <v>-0.4260285496711731</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.1290393322706223</v>
+        <v>-0.4437243342399597</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1791578382253647</v>
+        <v>-0.494112491607666</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.2267076820135117</v>
+        <v>-0.009101822972297668</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.02742905169725418</v>
+        <v>-0.4594275951385498</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1173981577157974</v>
+        <v>0.1416033804416656</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.4057868719100952</v>
+        <v>0.1026260256767273</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09170693159103394</v>
+        <v>0.03728979825973511</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6730909943580627</v>
+        <v>0.5511831045150757</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.01439155638217926</v>
+        <v>0.06867492198944092</v>
       </c>
       <c r="X19" t="n">
-        <v>0.07534557580947876</v>
+        <v>-0.09323838353157043</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.216825932264328</v>
+        <v>-0.1555044203996658</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.0898451954126358</v>
+        <v>-0.0851975604891777</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.1962694972753525</v>
+        <v>0.02686488628387451</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.09943006932735443</v>
+        <v>0.2682050466537476</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.2199803441762924</v>
+        <v>0.4907110929489136</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.2608798742294312</v>
+        <v>0.2242921739816666</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.7196774482727051</v>
+        <v>-0.2817861437797546</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.2650993764400482</v>
+        <v>0.4028915166854858</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.3608787953853607</v>
+        <v>0.009567697532474995</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3165453374385834</v>
+        <v>-0.5448092222213745</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2099161446094513</v>
+        <v>-0.5063014030456543</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2999746203422546</v>
+        <v>-0.7456660270690918</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3402577936649323</v>
+        <v>-0.5677931308746338</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007367666810750961</v>
+        <v>-0.5352421998977661</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5535038709640503</v>
+        <v>-0.5717523097991943</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.797881543636322</v>
+        <v>0.1174452528357506</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4451168775558472</v>
+        <v>-0.4849883615970612</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3256637156009674</v>
+        <v>-0.5588933825492859</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1132703125476837</v>
+        <v>-0.4418720006942749</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4632838070392609</v>
+        <v>-0.4015562832355499</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.3846666812896729</v>
+        <v>-0.1461061388254166</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.07427191734314</v>
+        <v>0.05775884166359901</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.09974096715450287</v>
+        <v>0.4280315339565277</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.5020388960838318</v>
+        <v>0.2571020722389221</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.3222533464431763</v>
+        <v>-0.5208442807197571</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1909134536981583</v>
+        <v>-0.4035765528678894</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.03547049313783646</v>
+        <v>0.4491023123264313</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1277546882629395</v>
+        <v>-0.02907950058579445</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.1410537660121918</v>
+        <v>0.6955578923225403</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.09232197701931</v>
+        <v>1.025232791900635</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6219853758811951</v>
+        <v>-0.1239399835467339</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1877012699842453</v>
+        <v>-0.0582328587770462</v>
       </c>
       <c r="X20" t="n">
-        <v>0.292920708656311</v>
+        <v>-0.03907439112663269</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.96453857421875e-05</v>
+        <v>-0.3182971477508545</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.1147733777761459</v>
+        <v>-0.00497063435614109</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.1512275785207748</v>
+        <v>-0.1069431006908417</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1315860599279404</v>
+        <v>-0.6072229743003845</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1728938817977905</v>
+        <v>0.3314081728458405</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.2636076509952545</v>
+        <v>0.1564689129590988</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.7583975791931152</v>
+        <v>-0.206079363822937</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.1112494170665741</v>
+        <v>-0.05985788628458977</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.2950364053249359</v>
+        <v>-0.1682079285383224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6054976582527161</v>
+        <v>0.128306046128273</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6305047869682312</v>
+        <v>-0.1512501686811447</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5893083810806274</v>
+        <v>0.1038582623004913</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6588076949119568</v>
+        <v>0.2432143986225128</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5800167918205261</v>
+        <v>0.4507171511650085</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7982020974159241</v>
+        <v>0.5193403363227844</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.5145584940910339</v>
+        <v>0.6721581220626831</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6782268881797791</v>
+        <v>-0.2855210900306702</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6129681468009949</v>
+        <v>0.1055636554956436</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2383815050125122</v>
+        <v>0.6531901955604553</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7683923244476318</v>
+        <v>0.084013931453228</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.58046954870224</v>
+        <v>1.292648196220398</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.8503398299217224</v>
+        <v>1.541723132133484</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1232694759964943</v>
+        <v>-0.2028041034936905</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.1655935794115067</v>
+        <v>0.08436232805252075</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.2827692627906799</v>
+        <v>0.09631891548633575</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3879843354225159</v>
+        <v>-0.2698431611061096</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.175464391708374</v>
+        <v>-0.07799864560365677</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.09510239213705063</v>
+        <v>0.2413647174835205</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1123960390686989</v>
+        <v>0.004913385957479477</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1248091906309128</v>
+        <v>0.300579309463501</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4826922714710236</v>
+        <v>-0.4958170354366302</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1361696273088455</v>
+        <v>-0.06192092597484589</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2661069631576538</v>
+        <v>0.04147323966026306</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.1487173438072205</v>
+        <v>-0.1583582013845444</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.1494603753089905</v>
+        <v>-0.1499375104904175</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.1878155171871185</v>
+        <v>-0.1122601330280304</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.1629376858472824</v>
+        <v>0.6379452347755432</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.722187340259552</v>
+        <v>-0.5443085432052612</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.2065712213516235</v>
+        <v>0.09235714375972748</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.8833631873130798</v>
+        <v>0.6795067191123962</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.2830457389354706</v>
+        <v>0.3032945692539215</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.3626711070537567</v>
+        <v>1.218449354171753</v>
       </c>
     </row>
   </sheetData>
